--- a/src/test/java/ApachePOI/resources/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resources/ApacheExcel2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber_Kursu3\src\test\java\ApachePOI\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\IdeaProjects\Cucumber\src\test\java\ApachePOI\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,58 +63,58 @@
     <t>bes</t>
   </si>
   <si>
-    <t>ulkemis11</t>
-  </si>
-  <si>
-    <t>ulkemis22</t>
-  </si>
-  <si>
-    <t>ulkemis33</t>
-  </si>
-  <si>
-    <t>ulkemis44</t>
-  </si>
-  <si>
-    <t>ulkemis55</t>
-  </si>
-  <si>
-    <t>ulkemis66</t>
-  </si>
-  <si>
-    <t>ulkemis77</t>
-  </si>
-  <si>
-    <t>ulkemis88</t>
-  </si>
-  <si>
-    <t>uis11</t>
-  </si>
-  <si>
-    <t>uis21</t>
-  </si>
-  <si>
-    <t>uis31</t>
-  </si>
-  <si>
-    <t>uis41</t>
-  </si>
-  <si>
-    <t>uis51</t>
-  </si>
-  <si>
-    <t>uis61</t>
-  </si>
-  <si>
-    <t>uis71</t>
-  </si>
-  <si>
-    <t>uis81</t>
+    <t>ulkemis11233</t>
+  </si>
+  <si>
+    <t>ulkemis22233</t>
+  </si>
+  <si>
+    <t>ulkemis33233</t>
+  </si>
+  <si>
+    <t>ulkemis44233</t>
+  </si>
+  <si>
+    <t>ulkemis55233</t>
+  </si>
+  <si>
+    <t>ulkemis66233</t>
+  </si>
+  <si>
+    <t>ulkemis77233</t>
+  </si>
+  <si>
+    <t>ulkemis88233</t>
+  </si>
+  <si>
+    <t>uis1123</t>
+  </si>
+  <si>
+    <t>uis21233</t>
+  </si>
+  <si>
+    <t>uis31233</t>
+  </si>
+  <si>
+    <t>uis41233</t>
+  </si>
+  <si>
+    <t>uis51233</t>
+  </si>
+  <si>
+    <t>uis61233</t>
+  </si>
+  <si>
+    <t>uis71233</t>
+  </si>
+  <si>
+    <t>uis81233</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
